--- a/tests/testthat/testdata_DSR_ISR_SMR.xlsx
+++ b/tests/testthat/testdata_DSR_ISR_SMR.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEstatmethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgina.anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F49F87-280A-4CD4-A151-20946C22F0EF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="719" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="719" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_multigroup" sheetId="16" r:id="rId1"/>
-    <sheet name="testdata_multiarea_ref" sheetId="15" r:id="rId2"/>
+    <sheet name="testdata_multiarea_isrsmr" sheetId="15" r:id="rId2"/>
     <sheet name="testdata_multiarea" sheetId="5" r:id="rId3"/>
     <sheet name="testdata_1976" sheetId="12" r:id="rId4"/>
     <sheet name="refdata" sheetId="14" r:id="rId5"/>
@@ -23,10 +24,16 @@
     <sheet name="testdata_err2" sheetId="8" r:id="rId9"/>
     <sheet name="testdata_err3" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -215,14 +222,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="??0.00"/>
     <numFmt numFmtId="165" formatCode="?,??0"/>
     <numFmt numFmtId="166" formatCode="??,??0"/>
     <numFmt numFmtId="167" formatCode="?,???,??0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +273,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -367,35 +388,50 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -672,11 +708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,11 +2683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,11 +2993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,7 +3079,7 @@
         <v>609</v>
       </c>
       <c r="E4">
-        <v>3225</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>60213</v>
@@ -3423,7 +3459,7 @@
         <v>609</v>
       </c>
       <c r="E23">
-        <v>3225</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>60213</v>
@@ -3795,15 +3831,6 @@
       </c>
       <c r="B42" t="s">
         <v>2</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>609</v>
-      </c>
-      <c r="E42">
-        <v>3225</v>
       </c>
       <c r="F42">
         <v>60213</v>
@@ -4136,11 +4163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4729,9 +4756,6 @@
       <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
       <c r="D42">
         <v>609</v>
       </c>
@@ -4967,11 +4991,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,20 +5289,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -5288,8 +5313,9 @@
       <c r="C1" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5300,7 +5326,7 @@
         <v>50520</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5311,18 +5337,18 @@
         <v>57173</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3225</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>60213</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5333,7 +5359,7 @@
         <v>54659</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5344,7 +5370,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5355,7 +5381,7 @@
         <v>50128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5366,7 +5392,7 @@
         <v>62163</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5377,7 +5403,7 @@
         <v>67423</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5388,7 +5414,7 @@
         <v>62899</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5399,7 +5425,7 @@
         <v>55463</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5410,7 +5436,7 @@
         <v>60479</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5421,7 +5447,7 @@
         <v>49974</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5432,7 +5458,7 @@
         <v>44140</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5443,7 +5469,7 @@
         <v>40888</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5504,11 +5530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5517,8 +5543,9 @@
     <col min="3" max="4" width="9.140625" style="18"/>
     <col min="5" max="6" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="23" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12" style="34" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5543,871 +5570,877 @@
       <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="28">
+    <row r="2" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="33">
         <v>895</v>
       </c>
-      <c r="C2" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D2" s="28">
-        <v>9718.074126844951</v>
-      </c>
-      <c r="E2" s="28">
-        <v>10014.578176786832</v>
-      </c>
-      <c r="F2" s="28">
-        <v>9369.1348126187768</v>
-      </c>
-      <c r="G2" s="29">
-        <v>10692.771133936561</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D2" s="33">
+        <v>9349.8830922110192</v>
+      </c>
+      <c r="E2" s="33">
+        <v>10011.137622091057</v>
+      </c>
+      <c r="F2" s="33">
+        <v>9365.91600297888</v>
+      </c>
+      <c r="G2" s="37">
+        <v>10689.097582910616</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="28">
+    <row r="3" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="33">
         <v>91</v>
       </c>
-      <c r="C3" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D3" s="28">
-        <v>9718.074126844951</v>
-      </c>
-      <c r="E3" s="28">
-        <v>1018.2420269135216</v>
-      </c>
-      <c r="F3" s="28">
-        <v>819.80264950202934</v>
-      </c>
-      <c r="G3" s="28">
-        <v>1250.1887682774923</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="C3" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D3" s="33">
+        <v>9349.8830922110192</v>
+      </c>
+      <c r="E3" s="33">
+        <v>1017.8922051511577</v>
+      </c>
+      <c r="F3" s="33">
+        <v>819.52100250646299</v>
+      </c>
+      <c r="G3" s="33">
+        <v>1249.7592601383201</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="28">
+    <row r="4" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="33">
         <v>9</v>
       </c>
-      <c r="C4" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D4" s="28">
-        <v>9718.074126844951</v>
-      </c>
-      <c r="E4" s="28">
-        <v>100.70525540902962</v>
-      </c>
-      <c r="F4" s="28">
-        <v>46.048855430548272</v>
-      </c>
-      <c r="G4" s="29">
-        <v>191.16994390980423</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="C4" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D4" s="33">
+        <v>9349.8830922110192</v>
+      </c>
+      <c r="E4" s="33">
+        <v>100.6706576523123</v>
+      </c>
+      <c r="F4" s="33">
+        <v>46.033035133078933</v>
+      </c>
+      <c r="G4" s="37">
+        <v>191.10426659054028</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="28">
+    <row r="5" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="33">
         <v>895</v>
       </c>
-      <c r="C5" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D5" s="28">
-        <v>9718.074126844951</v>
-      </c>
-      <c r="E5" s="28">
-        <v>10014.578176786832</v>
-      </c>
-      <c r="F5" s="28">
-        <v>9011.8539260027446</v>
-      </c>
-      <c r="G5" s="29">
-        <v>11092.838181295581</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="C5" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D5" s="33">
+        <v>9349.8830922110192</v>
+      </c>
+      <c r="E5" s="33">
+        <v>10011.137622091057</v>
+      </c>
+      <c r="F5" s="33">
+        <v>9008.7578618655007</v>
+      </c>
+      <c r="G5" s="37">
+        <v>11089.02718538338</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="28">
+    <row r="6" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="33">
         <v>91</v>
       </c>
-      <c r="C6" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D6" s="28">
-        <v>9718.074126844951</v>
-      </c>
-      <c r="E6" s="28">
-        <v>1018.2420269135216</v>
-      </c>
-      <c r="F6" s="28">
-        <v>719.76056742794265</v>
-      </c>
-      <c r="G6" s="28">
-        <v>1393.4168657142982</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D6" s="33">
+        <v>9349.8830922110192</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1017.8922051511577</v>
+      </c>
+      <c r="F6" s="33">
+        <v>719.51329035282447</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1392.9381508991678</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="28">
+    <row r="7" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="33">
         <v>9</v>
       </c>
-      <c r="C7" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D7" s="28">
-        <v>9718.074126844951</v>
-      </c>
-      <c r="E7" s="28">
-        <v>100.70525540902962</v>
-      </c>
-      <c r="F7" s="28">
-        <v>27.441336223643425</v>
-      </c>
-      <c r="G7" s="28">
-        <v>253.52406288743475</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="C7" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D7" s="33">
+        <v>9349.8830922110192</v>
+      </c>
+      <c r="E7" s="33">
+        <v>100.6706576523123</v>
+      </c>
+      <c r="F7" s="33">
+        <v>27.431908625542341</v>
+      </c>
+      <c r="G7" s="33">
+        <v>253.43696352192359</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="28">
+    <row r="8" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="33">
         <v>895</v>
       </c>
-      <c r="C8" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D8" s="28">
-        <v>97.180741268449509</v>
-      </c>
-      <c r="E8" s="28">
-        <v>100.14578176786831</v>
-      </c>
-      <c r="F8" s="28">
-        <v>93.691348126187762</v>
-      </c>
-      <c r="G8" s="28">
-        <v>106.92771133936562</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="C8" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D8" s="33">
+        <v>93.498830922110187</v>
+      </c>
+      <c r="E8" s="33">
+        <v>100.11137622091056</v>
+      </c>
+      <c r="F8" s="33">
+        <v>93.659160029788794</v>
+      </c>
+      <c r="G8" s="33">
+        <v>106.89097582910615</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="28">
+    <row r="9" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="33">
         <v>91</v>
       </c>
-      <c r="C9" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D9" s="28">
-        <v>97.180741268449509</v>
-      </c>
-      <c r="E9" s="28">
-        <v>10.182420269135216</v>
-      </c>
-      <c r="F9" s="28">
-        <v>8.1980264950202937</v>
-      </c>
-      <c r="G9" s="28">
-        <v>12.501887682774923</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="C9" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D9" s="33">
+        <v>93.498830922110187</v>
+      </c>
+      <c r="E9" s="33">
+        <v>10.178922051511577</v>
+      </c>
+      <c r="F9" s="33">
+        <v>8.1952100250646307</v>
+      </c>
+      <c r="G9" s="33">
+        <v>12.497592601383202</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="28">
+    <row r="10" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="33">
         <v>9</v>
       </c>
-      <c r="C10" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D10" s="28">
-        <v>97.180741268449509</v>
-      </c>
-      <c r="E10" s="28">
-        <v>1.0070525540902961</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0.46048855430548274</v>
-      </c>
-      <c r="G10" s="28">
-        <v>1.9116994390980424</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="C10" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D10" s="33">
+        <v>93.498830922110187</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1.0067065765231229</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.46033035133078931</v>
+      </c>
+      <c r="G10" s="33">
+        <v>1.9110426659054027</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="28">
+    <row r="11" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="33">
         <v>895</v>
       </c>
-      <c r="C11" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D11" s="28">
-        <v>97.180741268449509</v>
-      </c>
-      <c r="E11" s="28">
-        <v>100.14578176786831</v>
-      </c>
-      <c r="F11" s="28">
-        <v>90.118539260027447</v>
-      </c>
-      <c r="G11" s="28">
-        <v>110.92838181295582</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D11" s="33">
+        <v>93.498830922110187</v>
+      </c>
+      <c r="E11" s="33">
+        <v>100.11137622091056</v>
+      </c>
+      <c r="F11" s="33">
+        <v>90.087578618655002</v>
+      </c>
+      <c r="G11" s="33">
+        <v>110.8902718538338</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="28">
+    <row r="12" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="33">
         <v>91</v>
       </c>
-      <c r="C12" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D12" s="28">
-        <v>97.180741268449509</v>
-      </c>
-      <c r="E12" s="28">
-        <v>10.182420269135216</v>
-      </c>
-      <c r="F12" s="28">
-        <v>7.1976056742794263</v>
-      </c>
-      <c r="G12" s="28">
-        <v>13.934168657142981</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="C12" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D12" s="33">
+        <v>93.498830922110187</v>
+      </c>
+      <c r="E12" s="33">
+        <v>10.178922051511577</v>
+      </c>
+      <c r="F12" s="33">
+        <v>7.1951329035282443</v>
+      </c>
+      <c r="G12" s="33">
+        <v>13.929381508991677</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="28">
+    <row r="13" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="33">
         <v>9</v>
       </c>
-      <c r="C13" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D13" s="28">
-        <v>97.180741268449509</v>
-      </c>
-      <c r="E13" s="28">
-        <v>1.0070525540902961</v>
-      </c>
-      <c r="F13" s="28">
-        <v>0.27441336223643426</v>
-      </c>
-      <c r="G13" s="28">
-        <v>2.5352406288743476</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D13" s="33">
+        <v>93.498830922110187</v>
+      </c>
+      <c r="E13" s="33">
+        <v>1.0067065765231229</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0.27431908625542339</v>
+      </c>
+      <c r="G13" s="33">
+        <v>2.5343696352192358</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="28">
+    <row r="14" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="33">
         <v>895</v>
       </c>
-      <c r="C14" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="E14" s="28">
-        <v>1.030510577103217</v>
-      </c>
-      <c r="F14" s="28">
-        <v>0.96409377931556683</v>
-      </c>
-      <c r="G14" s="28">
-        <v>1.1002973422891613</v>
-      </c>
-      <c r="H14" s="30" t="s">
+      <c r="C14" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="E14" s="33">
+        <v>1.0707232939020275</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1.0017147712553987</v>
+      </c>
+      <c r="G14" s="33">
+        <v>1.1432332872498949</v>
+      </c>
+      <c r="H14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="28">
+    <row r="15" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="33">
         <v>91</v>
       </c>
-      <c r="C15" s="28">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0.10477817040937738</v>
-      </c>
-      <c r="F15" s="29">
-        <v>8.4358550758264761E-2</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0.12864573288487313</v>
-      </c>
-      <c r="H15" s="30" t="s">
+      <c r="C15" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.10886683770400503</v>
+      </c>
+      <c r="F15" s="37">
+        <v>8.765040101829405E-2</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0.13366576328418911</v>
+      </c>
+      <c r="H15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="36">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="18">
-        <v>1.0362676194334028E-2</v>
-      </c>
-      <c r="F16" s="18">
-        <v>4.7384754252227951E-3</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1.967158733454414E-2</v>
-      </c>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="38">
+        <v>1.0767049882813684E-2</v>
+      </c>
+      <c r="F16" s="38">
+        <v>4.9233808250957762E-3</v>
+      </c>
+      <c r="G16" s="38">
+        <v>2.043921455549973E-2</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="36">
         <v>895</v>
       </c>
-      <c r="C17" s="18">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="E17">
-        <v>1.030510577103217</v>
-      </c>
-      <c r="F17">
-        <v>0.92732920210071634</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1.1414646602306746</v>
-      </c>
-      <c r="H17" s="23" t="s">
+      <c r="C17" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="36">
+        <v>1.0707232939020275</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0.96351556196144372</v>
+      </c>
+      <c r="G17" s="38">
+        <v>1.1860070415876287</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="36">
         <v>91</v>
       </c>
-      <c r="C18" s="18">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0.10477817040937738</v>
-      </c>
-      <c r="F18" s="18">
-        <v>7.4064115794269886E-2</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0.14338405403444704</v>
-      </c>
-      <c r="H18" s="23" t="s">
+      <c r="C18" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38">
+        <v>0.10886683770400503</v>
+      </c>
+      <c r="F18" s="38">
+        <v>7.6954255283921108E-2</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0.14897920510466744</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="36">
         <v>9</v>
       </c>
-      <c r="C19" s="18">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1.0362676194334028E-2</v>
-      </c>
-      <c r="F19" s="18">
-        <v>2.8237422215004722E-3</v>
-      </c>
-      <c r="G19" s="23">
-        <v>2.6087891446218401E-2</v>
-      </c>
-      <c r="H19" s="23" t="s">
+      <c r="C19" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38">
+        <v>1.0767049882813684E-2</v>
+      </c>
+      <c r="F19" s="38">
+        <v>2.9339306550682617E-3</v>
+      </c>
+      <c r="G19" s="34">
+        <v>2.7105896514690211E-2</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="36">
         <v>895</v>
       </c>
-      <c r="C20">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20">
-        <v>103.0510577103217</v>
-      </c>
-      <c r="F20">
-        <v>96.409377931556691</v>
-      </c>
-      <c r="G20">
-        <v>110.02973422891613</v>
-      </c>
-      <c r="H20" s="23" t="s">
+      <c r="C20" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="E20" s="36">
+        <v>107.07232939020275</v>
+      </c>
+      <c r="F20" s="36">
+        <v>100.17147712553987</v>
+      </c>
+      <c r="G20" s="36">
+        <v>114.32332872498949</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="36">
         <v>91</v>
       </c>
-      <c r="C21">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21">
-        <v>10.477817040937738</v>
-      </c>
-      <c r="F21">
-        <v>8.4358550758264759</v>
-      </c>
-      <c r="G21">
-        <v>12.864573288487314</v>
-      </c>
-      <c r="H21" s="23" t="s">
+      <c r="C21" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="E21" s="36">
+        <v>10.886683770400502</v>
+      </c>
+      <c r="F21" s="36">
+        <v>8.7650401018294044</v>
+      </c>
+      <c r="G21" s="36">
+        <v>13.366576328418912</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="36">
         <v>9</v>
       </c>
-      <c r="C22">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22">
-        <v>1.0362676194334028</v>
-      </c>
-      <c r="F22">
-        <v>0.47384754252227951</v>
-      </c>
-      <c r="G22">
-        <v>1.9671587334544141</v>
-      </c>
-      <c r="H22" s="23" t="s">
+      <c r="C22" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36">
+        <v>1.0767049882813684</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0.49233808250957761</v>
+      </c>
+      <c r="G22" s="36">
+        <v>2.043921455549973</v>
+      </c>
+      <c r="H22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="36">
         <v>895</v>
       </c>
-      <c r="C23" s="18">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="E23">
-        <v>103.0510577103217</v>
-      </c>
-      <c r="F23">
-        <v>92.73292021007164</v>
-      </c>
-      <c r="G23">
-        <v>114.14646602306746</v>
-      </c>
-      <c r="H23" s="23" t="s">
+      <c r="C23" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="36">
+        <v>107.07232939020275</v>
+      </c>
+      <c r="F23" s="36">
+        <v>96.351556196144372</v>
+      </c>
+      <c r="G23" s="36">
+        <v>118.60070415876287</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="36">
         <v>91</v>
       </c>
-      <c r="C24" s="18">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="E24">
-        <v>10.477817040937738</v>
-      </c>
-      <c r="F24">
-        <v>7.4064115794269885</v>
-      </c>
-      <c r="G24">
-        <v>14.338405403444703</v>
-      </c>
-      <c r="H24" s="23" t="s">
+      <c r="C24" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="36">
+        <v>10.886683770400502</v>
+      </c>
+      <c r="F24" s="36">
+        <v>7.6954255283921107</v>
+      </c>
+      <c r="G24" s="36">
+        <v>14.897920510466744</v>
+      </c>
+      <c r="H24" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="36">
         <v>9</v>
       </c>
-      <c r="C25" s="18">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="E25">
-        <v>1.0362676194334028</v>
-      </c>
-      <c r="F25">
-        <v>0.2823742221500472</v>
-      </c>
-      <c r="G25">
-        <v>2.6087891446218401</v>
-      </c>
-      <c r="H25" s="23" t="s">
+      <c r="C25" s="33">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="36">
+        <v>1.0767049882813684</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0.2933930655068262</v>
+      </c>
+      <c r="G25" s="36">
+        <v>2.7105896514690211</v>
+      </c>
+      <c r="H25" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="39">
         <v>895</v>
       </c>
-      <c r="C26" s="32">
-        <v>840.93969634711902</v>
-      </c>
-      <c r="D26" s="32">
-        <v>9718.074126844951</v>
-      </c>
-      <c r="E26" s="32">
-        <v>10342.806245569416</v>
-      </c>
-      <c r="F26" s="32">
-        <v>9676.2084578011254</v>
-      </c>
-      <c r="G26" s="32">
-        <v>11043.22699510916</v>
-      </c>
-      <c r="H26" s="23" t="s">
+      <c r="C26" s="39">
+        <v>808.32174009182529</v>
+      </c>
+      <c r="D26" s="39">
+        <v>9349.8830922110192</v>
+      </c>
+      <c r="E26" s="39">
+        <v>10352.493261629017</v>
+      </c>
+      <c r="F26" s="39">
+        <v>9685.2711419993229</v>
+      </c>
+      <c r="G26" s="39">
+        <v>11053.570021432142</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="36">
         <v>91</v>
       </c>
-      <c r="C27" s="18">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D27" s="18">
-        <v>9718.074126844951</v>
-      </c>
-      <c r="E27" s="18">
-        <v>1018.2420269135216</v>
-      </c>
-      <c r="F27" s="18">
-        <v>819.80264950202934</v>
-      </c>
-      <c r="G27" s="23">
-        <v>1250.1887682774923</v>
-      </c>
-      <c r="H27" s="23" t="s">
+      <c r="C27" s="38">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D27" s="38">
+        <v>9349.8830922110192</v>
+      </c>
+      <c r="E27" s="38">
+        <v>1017.8922051511577</v>
+      </c>
+      <c r="F27" s="38">
+        <v>819.52100250646299</v>
+      </c>
+      <c r="G27" s="34">
+        <v>1249.7592601383201</v>
+      </c>
+      <c r="H27" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="36">
         <v>895</v>
       </c>
-      <c r="C28" s="18">
-        <v>840.93969634711902</v>
-      </c>
-      <c r="E28" s="18">
-        <v>106.42855889521074</v>
-      </c>
-      <c r="F28" s="18">
-        <v>99.569197883270135</v>
-      </c>
-      <c r="G28" s="23">
-        <v>113.63596172418198</v>
-      </c>
-      <c r="H28" s="23" t="s">
+      <c r="C28" s="38">
+        <v>808.32174009182529</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38">
+        <v>110.72323749430866</v>
+      </c>
+      <c r="F28" s="38">
+        <v>103.58708281676485</v>
+      </c>
+      <c r="G28" s="34">
+        <v>118.22147841228508</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="36">
         <v>91</v>
       </c>
-      <c r="C29" s="18">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="E29" s="18">
-        <v>10.477817040937738</v>
-      </c>
-      <c r="F29" s="18">
-        <v>8.4358550758264759</v>
-      </c>
-      <c r="G29" s="23">
-        <v>12.864573288487314</v>
-      </c>
-      <c r="H29" s="23" t="s">
+      <c r="C29" s="38">
+        <v>835.88356123117433</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38">
+        <v>10.886683770400502</v>
+      </c>
+      <c r="F29" s="38">
+        <v>8.7650401018294044</v>
+      </c>
+      <c r="G29" s="34">
+        <v>13.366576328418912</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="36" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6418,11 +6451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6432,7 +6465,7 @@
     <col min="4" max="4" width="9.140625" style="18"/>
     <col min="5" max="6" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6458,7 +6491,7 @@
       <c r="G1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>39</v>
       </c>
       <c r="I1" s="17" t="s">
@@ -6487,7 +6520,7 @@
       <c r="G2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="18" t="s">
@@ -6516,7 +6549,7 @@
       <c r="G3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="25" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -6536,7 +6569,7 @@
       <c r="G4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="25" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="18" t="s">
@@ -6565,7 +6598,7 @@
       <c r="G5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="25" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="18" t="s">
@@ -6594,7 +6627,7 @@
       <c r="G6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="25" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="18" t="s">
@@ -6623,7 +6656,7 @@
       <c r="G7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="25" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="18" t="s">
@@ -6643,7 +6676,7 @@
       <c r="G8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="25" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="18" t="s">
@@ -6672,7 +6705,7 @@
       <c r="G9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="25" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="18" t="s">
@@ -6704,7 +6737,7 @@
       <c r="G10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="18" t="s">
@@ -6736,7 +6769,7 @@
       <c r="G11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="18" t="s">
@@ -6756,7 +6789,7 @@
       <c r="G12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="25" t="s">
         <v>57</v>
       </c>
       <c r="I12" s="18" t="s">
@@ -6785,7 +6818,7 @@
       <c r="G13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="18" t="s">
@@ -6817,7 +6850,7 @@
       <c r="G14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="18" t="s">
@@ -6849,7 +6882,7 @@
       <c r="G15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="18" t="s">
@@ -6869,7 +6902,7 @@
       <c r="G16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="25" t="s">
         <v>57</v>
       </c>
       <c r="I16" s="18" t="s">
@@ -6901,7 +6934,7 @@
       <c r="G17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="18" t="s">
@@ -6915,7 +6948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7226,11 +7259,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
